--- a/doc/PETR4cg_5anos.xlsx
+++ b/doc/PETR4cg_5anos.xlsx
@@ -317,6 +317,9 @@
           <c:tx>
             <c:v>Retornos da Ação</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -7802,6 +7805,9 @@
           <c:tx>
             <c:v>Retornos do Mercado</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>

--- a/doc/PETR4cg_5anos.xlsx
+++ b/doc/PETR4cg_5anos.xlsx
@@ -325,9 +325,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$1244</c:f>
+              <c:f>Retornos!$D$2:$D$1243</c:f>
               <c:strCache>
-                <c:ptCount val="1243"/>
+                <c:ptCount val="1242"/>
                 <c:pt idx="0">
                   <c:v>08/2024</c:v>
                 </c:pt>
@@ -4052,9 +4052,6 @@
                   <c:v>09/2019</c:v>
                 </c:pt>
                 <c:pt idx="1241">
-                  <c:v>09/2019</c:v>
-                </c:pt>
-                <c:pt idx="1242">
                   <c:v>09/2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -4062,10 +4059,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$B$2:$B$1244</c:f>
+              <c:f>Retornos!$B$2:$B$1243</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1243"/>
+                <c:ptCount val="1242"/>
                 <c:pt idx="0">
                   <c:v>0.009487179487179365</c:v>
                 </c:pt>
@@ -7791,9 +7788,6 @@
                 </c:pt>
                 <c:pt idx="1241">
                   <c:v>-0.005027068832173187</c:v>
-                </c:pt>
-                <c:pt idx="1242">
-                  <c:v>-0.02487368830159353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7813,9 +7807,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$1244</c:f>
+              <c:f>Retornos!$D$2:$D$1243</c:f>
               <c:strCache>
-                <c:ptCount val="1243"/>
+                <c:ptCount val="1242"/>
                 <c:pt idx="0">
                   <c:v>08/2024</c:v>
                 </c:pt>
@@ -11540,9 +11534,6 @@
                   <c:v>09/2019</c:v>
                 </c:pt>
                 <c:pt idx="1241">
-                  <c:v>09/2019</c:v>
-                </c:pt>
-                <c:pt idx="1242">
                   <c:v>09/2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -11550,10 +11541,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$C$2:$C$1244</c:f>
+              <c:f>Retornos!$C$2:$C$1243</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1243"/>
+                <c:ptCount val="1242"/>
                 <c:pt idx="0">
                   <c:v>-0.0002719768305142756</c:v>
                 </c:pt>
@@ -15279,9 +15270,6 @@
                 </c:pt>
                 <c:pt idx="1241">
                   <c:v>0.01524864317171781</c:v>
-                </c:pt>
-                <c:pt idx="1242">
-                  <c:v>-0.009391211019020962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15693,6 +15681,11 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -33120,6 +33113,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
